--- a/src/check/复核规则统计.xlsx
+++ b/src/check/复核规则统计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="65">
   <si>
     <t>组别</t>
   </si>
@@ -84,7 +84,16 @@
     <t>00201007_1</t>
   </si>
   <si>
-    <t>是</t>
+    <t>否</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>isCheck</t>
+  </si>
+  <si>
+    <t>==</t>
   </si>
   <si>
     <t>CBS0047</t>
@@ -211,8 +220,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -250,21 +259,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +294,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -307,16 +340,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -327,6 +362,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -345,59 +402,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -414,187 +423,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,8 +635,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,7 +645,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,6 +661,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,15 +721,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -705,21 +729,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -728,146 +737,146 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1298,8 +1307,8 @@
   <sheetPr/>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1313,10 +1322,10 @@
     <col min="7" max="7" width="13.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="4" customWidth="1"/>
     <col min="14" max="14" width="17.125" style="5" customWidth="1"/>
     <col min="15" max="16" width="9" style="5"/>
     <col min="17" max="17" width="11.5" style="5" customWidth="1"/>
@@ -1357,10 +1366,10 @@
       <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="12" t="s">
@@ -1395,6 +1404,18 @@
       <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
       <c r="O2" s="5">
         <v>2</v>
       </c>
@@ -1429,10 +1450,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1440,10 +1461,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1451,10 +1472,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1462,10 +1483,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1473,10 +1494,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1484,10 +1505,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1495,10 +1516,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1506,10 +1527,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1524,7 +1545,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1539,19 +1560,19 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="57.75" customHeight="1" spans="1:14">
       <c r="A1" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -1568,13 +1589,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -1618,28 +1639,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1653,16 +1674,16 @@
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1679,16 +1700,16 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1705,16 +1726,16 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1725,22 +1746,22 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1751,22 +1772,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1777,22 +1798,22 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1803,22 +1824,22 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1829,22 +1850,22 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1855,22 +1876,22 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1881,22 +1902,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1907,22 +1928,22 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>

--- a/src/check/复核规则统计.xlsx
+++ b/src/check/复核规则统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="复核规则统计" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="109">
   <si>
     <t>组别</t>
   </si>
@@ -88,7 +88,7 @@
     <t>00302016_01</t>
   </si>
   <si>
-    <t>是</t>
+    <t>否</t>
   </si>
   <si>
     <t>强制复核</t>
@@ -323,9 +323,6 @@
   </si>
   <si>
     <t>是否线上填单</t>
-  </si>
-  <si>
-    <t>否</t>
   </si>
   <si>
     <t>对私</t>
@@ -400,7 +397,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,13 +414,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -470,33 +460,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,23 +475,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,10 +490,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -561,8 +534,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,29 +572,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,14 +586,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,19 +631,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,163 +781,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,26 +858,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,6 +893,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,31 +922,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,10 +963,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,134 +975,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1147,25 +1131,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1182,47 +1166,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="52">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1">
@@ -1632,26 +1616,26 @@
   <sheetPr/>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.3796296296296" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.3833333333333" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="12.25" style="18" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="18" customWidth="1"/>
     <col min="6" max="6" width="17.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.6296296296296" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.62962962962963" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.8796296296296" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.8796296296296" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.6333333333333" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.63333333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.8833333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.8833333333333" style="18" customWidth="1"/>
     <col min="11" max="11" width="10" style="18" customWidth="1"/>
-    <col min="12" max="12" width="11.1296296296296" style="18" customWidth="1"/>
-    <col min="13" max="13" width="11.3796296296296" style="18" customWidth="1"/>
-    <col min="14" max="14" width="17.1296296296296" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.1333333333333" style="18" customWidth="1"/>
+    <col min="13" max="13" width="11.3833333333333" style="18" customWidth="1"/>
+    <col min="14" max="14" width="17.1333333333333" style="4" customWidth="1"/>
     <col min="15" max="16" width="9" style="4"/>
     <col min="17" max="17" width="11.5" style="4" customWidth="1"/>
     <col min="18" max="16384" width="9" style="4"/>
@@ -2004,17 +1988,17 @@
   <sheetPr/>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="19.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.8796296296296" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.8833333333333" style="18" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.3796296296296" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.1296296296296" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.3833333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.1333333333333" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2098,14 +2082,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="12.8796296296296" customWidth="1"/>
-    <col min="3" max="3" width="13.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="14.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.1333333333333" customWidth="1"/>
     <col min="5" max="5" width="120.25" customWidth="1"/>
-    <col min="9" max="9" width="11.1296296296296" customWidth="1"/>
+    <col min="9" max="9" width="11.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2444,19 +2428,19 @@
       <selection activeCell="A10" sqref="A10:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="13.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="13.3833333333333" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="9" width="13.8796296296296" customWidth="1"/>
+    <col min="7" max="9" width="13.8833333333333" customWidth="1"/>
     <col min="10" max="10" width="12.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6296296296296" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1296296296296" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.1296296296296" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.6333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1333333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.1333333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2608,7 +2592,7 @@
         <v>94</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>96</v>
@@ -2631,7 +2615,7 @@
         <v>94</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
@@ -2659,7 +2643,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>88</v>
@@ -2698,7 +2682,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -2706,14 +2690,14 @@
         <v>94</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>88</v>
@@ -2737,7 +2721,7 @@
         <v>94</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>96</v>
@@ -2760,7 +2744,7 @@
         <v>94</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="14"/>
@@ -2791,7 +2775,7 @@
         <v>94</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>96</v>
@@ -2805,7 +2789,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -2813,7 +2797,7 @@
         <v>94</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L13" s="12"/>
     </row>
@@ -2855,7 +2839,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2863,7 +2847,7 @@
         <v>94</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>96</v>

--- a/src/check/复核规则统计.xlsx
+++ b/src/check/复核规则统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="复核规则统计" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="108">
   <si>
     <t>组别</t>
   </si>
@@ -100,9 +100,6 @@
     <t>==</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>CBS0047</t>
   </si>
   <si>
@@ -178,13 +175,13 @@
     <t>9999</t>
   </si>
   <si>
-    <t>remitAmount</t>
+    <t>remitAmount,custom-input_remitAmount</t>
   </si>
   <si>
     <t>汇款金额</t>
   </si>
   <si>
-    <t>recriverNum</t>
+    <t>recriverNum,custom-input_5</t>
   </si>
   <si>
     <t>收款人账号</t>
@@ -468,16 +465,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,17 +493,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,14 +530,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -549,13 +537,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -580,7 +577,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,7 +585,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,37 +628,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,139 +802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,6 +855,74 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -887,74 +952,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -963,10 +960,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -975,16 +972,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,10 +993,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,95 +1011,95 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1616,8 +1613,8 @@
   <sheetPr/>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1725,11 +1722,11 @@
       <c r="K2" s="18">
         <v>1</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>26</v>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1759,16 +1756,16 @@
         <v>17</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>22</v>
@@ -1783,13 +1780,13 @@
         <v>25</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1797,10 +1794,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1808,10 +1805,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1819,10 +1816,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1830,16 +1827,16 @@
         <v>17</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>33</v>
-      </c>
       <c r="E9" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>22</v>
@@ -1854,13 +1851,13 @@
         <v>25</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1868,16 +1865,16 @@
         <v>17</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="E10" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>22</v>
@@ -1892,13 +1889,13 @@
         <v>25</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1906,16 +1903,16 @@
         <v>17</v>
       </c>
       <c r="B11" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="E11" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>22</v>
@@ -1930,13 +1927,13 @@
         <v>25</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1944,16 +1941,16 @@
         <v>17</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="E12" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>22</v>
@@ -1968,13 +1965,13 @@
         <v>25</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1988,15 +1985,15 @@
   <sheetPr/>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="19.25" style="18" customWidth="1"/>
     <col min="2" max="2" width="13.8833333333333" style="18" customWidth="1"/>
-    <col min="3" max="3" width="21" style="4" customWidth="1"/>
+    <col min="3" max="3" width="47.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="24.3833333333333" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.1333333333333" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
@@ -2004,19 +2001,19 @@
   <sheetData>
     <row r="1" s="17" customFormat="1" ht="57.75" customHeight="1" spans="1:14">
       <c r="A1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
@@ -2030,16 +2027,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -2047,16 +2044,16 @@
     </row>
     <row r="3" s="4" customFormat="1" spans="1:5">
       <c r="A3" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -2100,28 +2097,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2135,16 +2132,16 @@
         <v>20</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -2161,16 +2158,16 @@
         <v>20</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="G3" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -2187,16 +2184,16 @@
         <v>20</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="G4" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -2207,22 +2204,22 @@
         <v>17</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
@@ -2233,22 +2230,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="G6" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -2259,22 +2256,22 @@
         <v>17</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="G7" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -2285,22 +2282,22 @@
         <v>17</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="G8" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -2311,22 +2308,22 @@
         <v>17</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -2337,22 +2334,22 @@
         <v>17</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -2363,22 +2360,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -2389,22 +2386,22 @@
         <v>17</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -2445,63 +2442,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="N1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2514,34 +2511,34 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="M3" s="13"/>
     </row>
@@ -2553,49 +2550,49 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M5" s="13"/>
     </row>
@@ -2607,15 +2604,15 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
@@ -2628,49 +2625,49 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="L8" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="M8" s="14"/>
     </row>
@@ -2682,49 +2679,49 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10" s="14"/>
     </row>
@@ -2736,49 +2733,49 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2789,15 +2786,15 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L13" s="12"/>
     </row>
@@ -2809,48 +2806,48 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2861,15 +2858,15 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="L16" s="12"/>
     </row>

--- a/src/check/复核规则统计.xlsx
+++ b/src/check/复核规则统计.xlsx
@@ -175,10 +175,10 @@
     <t>9999</t>
   </si>
   <si>
-    <t>remitAmount,custom-input_remitAmount</t>
-  </si>
-  <si>
-    <t>汇款金额</t>
+    <t>recriverName,custom-input_6</t>
+  </si>
+  <si>
+    <t>收款人户名</t>
   </si>
   <si>
     <t>recriverNum,custom-input_5</t>
@@ -389,9 +389,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -457,15 +457,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,11 +480,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,7 +495,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,12 +524,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -522,16 +532,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,61 +606,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -628,25 +628,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,79 +784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,67 +802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,11 +855,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,6 +881,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,27 +913,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,17 +942,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,10 +960,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,134 +972,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1986,7 +1986,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/src/check/复核规则统计.xlsx
+++ b/src/check/复核规则统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="22488" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="复核规则统计" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>组别</t>
   </si>
@@ -91,7 +91,7 @@
     <t>否</t>
   </si>
   <si>
-    <t>强制复核</t>
+    <t>需要复核</t>
   </si>
   <si>
     <t>isCheck</t>
@@ -163,7 +163,7 @@
     <t>法人编号LPR_NO</t>
   </si>
   <si>
-    <t>复核字段名称RCHK_FIELD_NM</t>
+    <t>复核字段名称RCHK_FIELD_NM 长度varchar(32)</t>
   </si>
   <si>
     <t>复核字段信息RCHK_FIELD_INFO</t>
@@ -175,16 +175,25 @@
     <t>9999</t>
   </si>
   <si>
-    <t>recriverName,custom-input_6</t>
-  </si>
-  <si>
-    <t>收款人户名</t>
-  </si>
-  <si>
     <t>recriverNum,custom-input_5</t>
   </si>
   <si>
     <t>收款人账号</t>
+  </si>
+  <si>
+    <t>remitAmount,custom-txAmt</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>Recvr_Acct_Num,custom-input_acc</t>
+  </si>
+  <si>
+    <t>TX_Amt,custom-input_txAm</t>
+  </si>
+  <si>
+    <t>汇款金额</t>
   </si>
   <si>
     <t>功能名称</t>
@@ -389,9 +398,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -457,9 +466,83 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,45 +557,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,16 +579,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -554,58 +609,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -628,13 +637,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,61 +775,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,97 +805,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,6 +879,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -889,7 +933,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,15 +943,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,32 +961,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -960,10 +969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,134 +981,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1614,25 +1623,25 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.3833333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.3796296296296" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="12.25" style="18" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="18" customWidth="1"/>
     <col min="6" max="6" width="17.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.6333333333333" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.63333333333333" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.8833333333333" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.8833333333333" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.6296296296296" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.62962962962963" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.8796296296296" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.8796296296296" style="18" customWidth="1"/>
     <col min="11" max="11" width="10" style="18" customWidth="1"/>
-    <col min="12" max="12" width="11.1333333333333" style="18" customWidth="1"/>
-    <col min="13" max="13" width="11.3833333333333" style="18" customWidth="1"/>
-    <col min="14" max="14" width="17.1333333333333" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.1296296296296" style="18" customWidth="1"/>
+    <col min="13" max="13" width="11.3796296296296" style="18" customWidth="1"/>
+    <col min="14" max="14" width="17.1296296296296" style="4" customWidth="1"/>
     <col min="15" max="16" width="9" style="4"/>
     <col min="17" max="17" width="11.5" style="4" customWidth="1"/>
     <col min="18" max="16384" width="9" style="4"/>
@@ -1983,19 +1992,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="19.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.8833333333333" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.3833333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.1333333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.8796296296296" style="18" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.3796296296296" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.1296296296296" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2025,7 +2034,7 @@
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" s="4" customFormat="1" spans="1:5">
       <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
@@ -2042,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -2056,6 +2065,40 @@
         <v>54</v>
       </c>
       <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2079,14 +2122,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.8833333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="13.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="14.1296296296296" customWidth="1"/>
     <col min="5" max="5" width="120.25" customWidth="1"/>
-    <col min="9" max="9" width="11.1333333333333" customWidth="1"/>
+    <col min="9" max="9" width="11.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2097,28 +2140,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2132,16 +2175,16 @@
         <v>20</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -2158,16 +2201,16 @@
         <v>20</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -2184,16 +2227,16 @@
         <v>20</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -2210,16 +2253,16 @@
         <v>28</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
@@ -2236,16 +2279,16 @@
         <v>28</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -2262,16 +2305,16 @@
         <v>28</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -2288,16 +2331,16 @@
         <v>28</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -2314,16 +2357,16 @@
         <v>32</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -2340,16 +2383,16 @@
         <v>35</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -2366,16 +2409,16 @@
         <v>39</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -2392,16 +2435,16 @@
         <v>43</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -2425,80 +2468,80 @@
       <selection activeCell="A10" sqref="A10:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="13.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.3796296296296" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="9" width="13.8833333333333" customWidth="1"/>
+    <col min="7" max="9" width="13.8796296296296" customWidth="1"/>
     <col min="10" max="10" width="12.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1333333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.1333333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.6296296296296" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1296296296296" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.1296296296296" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2511,34 +2554,34 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M3" s="13"/>
     </row>
@@ -2550,49 +2593,49 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M5" s="13"/>
     </row>
@@ -2604,15 +2647,15 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
@@ -2625,49 +2668,49 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M8" s="14"/>
     </row>
@@ -2679,49 +2722,49 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M10" s="14"/>
     </row>
@@ -2733,49 +2776,49 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2786,15 +2829,15 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L13" s="12"/>
     </row>
@@ -2806,48 +2849,48 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2858,15 +2901,15 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L16" s="12"/>
     </row>

--- a/src/check/复核规则统计.xlsx
+++ b/src/check/复核规则统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="复核规则统计" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="113">
   <si>
     <t>组别</t>
   </si>
@@ -172,6 +172,9 @@
     <t>状态代码STUS_CD</t>
   </si>
   <si>
+    <t>映射字段</t>
+  </si>
+  <si>
     <t>9999</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
   </si>
   <si>
     <t>收款人账号</t>
+  </si>
+  <si>
+    <t>recriverNumXX</t>
   </si>
   <si>
     <t>remitAmount,custom-txAmt</t>
@@ -466,44 +472,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,7 +488,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,7 +526,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,9 +569,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,51 +621,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -637,13 +643,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,19 +727,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,139 +799,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,6 +870,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -890,11 +905,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,39 +967,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -969,10 +975,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,134 +987,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1626,22 +1632,22 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.3796296296296" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.3833333333333" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="12.25" style="18" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="18" customWidth="1"/>
     <col min="6" max="6" width="17.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.6296296296296" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.62962962962963" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.8796296296296" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.8796296296296" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.6333333333333" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.63333333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.8833333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.8833333333333" style="18" customWidth="1"/>
     <col min="11" max="11" width="10" style="18" customWidth="1"/>
-    <col min="12" max="12" width="11.1296296296296" style="18" customWidth="1"/>
-    <col min="13" max="13" width="11.3796296296296" style="18" customWidth="1"/>
-    <col min="14" max="14" width="17.1296296296296" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.1333333333333" style="18" customWidth="1"/>
+    <col min="13" max="13" width="11.3833333333333" style="18" customWidth="1"/>
+    <col min="14" max="14" width="17.1333333333333" style="4" customWidth="1"/>
     <col min="15" max="16" width="9" style="4"/>
     <col min="17" max="17" width="11.5" style="4" customWidth="1"/>
     <col min="18" max="16384" width="9" style="4"/>
@@ -1995,17 +2001,18 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="19.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.8796296296296" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.8833333333333" style="18" customWidth="1"/>
     <col min="3" max="3" width="60.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.3796296296296" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.1296296296296" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="4" max="4" width="24.3833333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.1333333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="1" ht="57.75" customHeight="1" spans="1:14">
@@ -2024,7 +2031,9 @@
       <c r="E1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="23"/>
+      <c r="F1" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
@@ -2034,21 +2043,24 @@
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:5">
+    <row r="2" s="4" customFormat="1" spans="1:6">
       <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2056,13 +2068,13 @@
         <v>27</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -2073,13 +2085,13 @@
         <v>19</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -2090,13 +2102,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -2122,14 +2134,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="12.8796296296296" customWidth="1"/>
-    <col min="3" max="3" width="13.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="14.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.1333333333333" customWidth="1"/>
     <col min="5" max="5" width="120.25" customWidth="1"/>
-    <col min="9" max="9" width="11.1296296296296" customWidth="1"/>
+    <col min="9" max="9" width="11.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2140,28 +2152,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2175,16 +2187,16 @@
         <v>20</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -2201,16 +2213,16 @@
         <v>20</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -2227,16 +2239,16 @@
         <v>20</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -2253,16 +2265,16 @@
         <v>28</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
@@ -2279,16 +2291,16 @@
         <v>28</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -2305,16 +2317,16 @@
         <v>28</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -2331,16 +2343,16 @@
         <v>28</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -2357,16 +2369,16 @@
         <v>32</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -2383,16 +2395,16 @@
         <v>35</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -2409,16 +2421,16 @@
         <v>39</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -2435,16 +2447,16 @@
         <v>43</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -2468,80 +2480,80 @@
       <selection activeCell="A10" sqref="A10:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="13.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="13.3833333333333" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="9" width="13.8796296296296" customWidth="1"/>
+    <col min="7" max="9" width="13.8833333333333" customWidth="1"/>
     <col min="10" max="10" width="12.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6296296296296" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1296296296296" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.1296296296296" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.6333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1333333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.1333333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2554,34 +2566,34 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M3" s="13"/>
     </row>
@@ -2593,49 +2605,49 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" s="13"/>
     </row>
@@ -2647,15 +2659,15 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
@@ -2668,49 +2680,49 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M8" s="14"/>
     </row>
@@ -2722,49 +2734,49 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M10" s="14"/>
     </row>
@@ -2776,49 +2788,49 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2829,15 +2841,15 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L13" s="12"/>
     </row>
@@ -2849,48 +2861,48 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2901,15 +2913,15 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L16" s="12"/>
     </row>

--- a/src/check/复核规则统计.xlsx
+++ b/src/check/复核规则统计.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="22488" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="复核规则统计" sheetId="2" r:id="rId1"/>
     <sheet name="复核字段" sheetId="3" r:id="rId2"/>
-    <sheet name="业务提供参数" sheetId="1" r:id="rId3"/>
-    <sheet name="复核规则" sheetId="4" r:id="rId4"/>
+    <sheet name="复核字段映射" sheetId="5" r:id="rId3"/>
+    <sheet name="业务提供参数" sheetId="1" r:id="rId4"/>
+    <sheet name="复核规则" sheetId="4" r:id="rId5"/>
+    <sheet name="标准字段" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
   <si>
     <t>组别</t>
   </si>
@@ -172,9 +174,6 @@
     <t>状态代码STUS_CD</t>
   </si>
   <si>
-    <t>映射字段</t>
-  </si>
-  <si>
     <t>9999</t>
   </si>
   <si>
@@ -184,9 +183,6 @@
     <t>收款人账号</t>
   </si>
   <si>
-    <t>recriverNumXX</t>
-  </si>
-  <si>
     <t>remitAmount,custom-txAmt</t>
   </si>
   <si>
@@ -200,6 +196,60 @@
   </si>
   <si>
     <t>汇款金额</t>
+  </si>
+  <si>
+    <t>交易码8位</t>
+  </si>
+  <si>
+    <t>公共字段</t>
+  </si>
+  <si>
+    <t>payRemitWay</t>
+  </si>
+  <si>
+    <t>PAYMT_REMITWY_CD</t>
+  </si>
+  <si>
+    <t>支付汇路</t>
+  </si>
+  <si>
+    <t>beneficiaryNumber</t>
+  </si>
+  <si>
+    <t>CNTPTY_RW_BNKNO</t>
+  </si>
+  <si>
+    <t>对方行行号</t>
+  </si>
+  <si>
+    <t>recriverNum</t>
+  </si>
+  <si>
+    <t>CNTPTY_CARD_NO_OR_ACCT_NO</t>
+  </si>
+  <si>
+    <t>对手账号</t>
+  </si>
+  <si>
+    <t>recriverName</t>
+  </si>
+  <si>
+    <t>CNTPTY_ACCT_NM</t>
+  </si>
+  <si>
+    <t>对手户名</t>
+  </si>
+  <si>
+    <t>Pay_Path_Cd</t>
+  </si>
+  <si>
+    <t>Recvr_Open_Acct_Bank_Bank_Id</t>
+  </si>
+  <si>
+    <t>Recvr_Acct_Num</t>
+  </si>
+  <si>
+    <t>Recvr_Nm</t>
   </si>
   <si>
     <t>功能名称</t>
@@ -398,18 +448,135 @@
   <si>
     <t>内部账</t>
   </si>
+  <si>
+    <t>交易金额</t>
+  </si>
+  <si>
+    <t>TX_AMT</t>
+  </si>
+  <si>
+    <t>PUB_DICTRY_NM</t>
+  </si>
+  <si>
+    <t>映射后的公共字段名</t>
+  </si>
+  <si>
+    <t>PRIV_DICTRY_NM</t>
+  </si>
+  <si>
+    <t>该交易中送的字段名</t>
+  </si>
+  <si>
+    <t>PULDW_MAPG_DICTRY_NM</t>
+  </si>
+  <si>
+    <t>下拉映射字段名称</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>映射后公共字段名</t>
+  </si>
+  <si>
+    <t>CUST_TYP_CD</t>
+  </si>
+  <si>
+    <t>客户编号</t>
+  </si>
+  <si>
+    <t>CUST_NO</t>
+  </si>
+  <si>
+    <t>证件类型代码</t>
+  </si>
+  <si>
+    <t>CRTF_TYP_CD</t>
+  </si>
+  <si>
+    <t>证件号码</t>
+  </si>
+  <si>
+    <t>CRTF_NO</t>
+  </si>
+  <si>
+    <t>核查结果代码</t>
+  </si>
+  <si>
+    <t>CHK_RESULT_CD</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>MOBILE_NO</t>
+  </si>
+  <si>
+    <t>代理人证件类型代码</t>
+  </si>
+  <si>
+    <t>AGENT_CRTF_TYP_CD</t>
+  </si>
+  <si>
+    <t>代理人证件号码</t>
+  </si>
+  <si>
+    <t>AGENT_CRTF_NO</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>ACCT_NO</t>
+  </si>
+  <si>
+    <t>账户名称</t>
+  </si>
+  <si>
+    <t>ACCT_NM</t>
+  </si>
+  <si>
+    <t>账户机构号</t>
+  </si>
+  <si>
+    <t>ACCT_ORG_NO</t>
+  </si>
+  <si>
+    <t>账户机构名称</t>
+  </si>
+  <si>
+    <t>ACCT_ORG_NM</t>
+  </si>
+  <si>
+    <t>币种代码</t>
+  </si>
+  <si>
+    <t>CUR_CD</t>
+  </si>
+  <si>
+    <t>现转标志</t>
+  </si>
+  <si>
+    <t>CASH_TRAN_FLG</t>
+  </si>
+  <si>
+    <t>对方卡号或账号</t>
+  </si>
+  <si>
+    <t>对方账户名称</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +613,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
@@ -473,14 +647,81 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,36 +752,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,29 +760,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,7 +774,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,23 +795,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,7 +805,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,19 +829,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,13 +889,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,13 +907,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,13 +925,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,7 +937,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,13 +973,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,61 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,26 +1050,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,7 +1119,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,36 +1147,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -975,10 +1155,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,10 +1167,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -999,124 +1179,124 @@
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1127,17 +1307,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1155,13 +1347,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1179,52 +1371,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="52">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="52" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1632,360 +1830,360 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.3833333333333" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="12.25" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="18" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.6333333333333" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.63333333333333" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.8833333333333" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.8833333333333" style="18" customWidth="1"/>
-    <col min="11" max="11" width="10" style="18" customWidth="1"/>
-    <col min="12" max="12" width="11.1333333333333" style="18" customWidth="1"/>
-    <col min="13" max="13" width="11.3833333333333" style="18" customWidth="1"/>
-    <col min="14" max="14" width="17.1333333333333" style="4" customWidth="1"/>
-    <col min="15" max="16" width="9" style="4"/>
-    <col min="17" max="17" width="11.5" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="13.3796296296296" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9" style="8"/>
+    <col min="3" max="3" width="12.25" style="23" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="23" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.6296296296296" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.62962962962963" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.8796296296296" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10.8796296296296" style="23" customWidth="1"/>
+    <col min="11" max="11" width="10" style="23" customWidth="1"/>
+    <col min="12" max="12" width="11.1296296296296" style="23" customWidth="1"/>
+    <col min="13" max="13" width="11.3796296296296" style="23" customWidth="1"/>
+    <col min="14" max="14" width="17.1296296296296" style="8" customWidth="1"/>
+    <col min="15" max="16" width="9" style="8"/>
+    <col min="17" max="17" width="11.5" style="8" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="57.75" customHeight="1" spans="1:17">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="30" customFormat="1" ht="57.75" customHeight="1" spans="1:17">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="23">
         <v>1</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="8">
         <v>1</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="8">
         <v>1</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="37" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="37" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="37" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="8">
         <v>1</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="8">
         <v>1</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="8">
         <v>1</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="8">
         <v>1</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2000,117 +2198,112 @@
   <sheetPr/>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.8833333333333" style="18" customWidth="1"/>
-    <col min="3" max="3" width="60.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.3833333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.1333333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="19.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.8796296296296" style="23" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24.3796296296296" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.1296296296296" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6296296296296" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="57.75" customHeight="1" spans="1:14">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="22" customFormat="1" ht="57.75" customHeight="1" spans="1:14">
+      <c r="A1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+    </row>
+    <row r="2" s="8" customFormat="1" spans="1:5">
+      <c r="A2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-    </row>
-    <row r="2" s="4" customFormat="1" spans="1:6">
-      <c r="A2" s="18" t="s">
+      <c r="C2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2128,339 +2321,488 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="19.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="18.1296296296296" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="21" customFormat="1" ht="47" customHeight="1" spans="1:4">
+      <c r="A1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.8833333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="13.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="14.1296296296296" customWidth="1"/>
     <col min="5" max="5" width="120.25" customWidth="1"/>
-    <col min="9" max="9" width="11.1333333333333" customWidth="1"/>
+    <col min="9" max="9" width="11.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>67</v>
+      <c r="C1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="D2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="D3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="D4" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="D5" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="D6" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="D7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="D8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="D9" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="D10" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="D11" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="D12" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2471,7 +2813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N17"/>
@@ -2480,464 +2822,464 @@
       <selection activeCell="A10" sqref="A10:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="13.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.3796296296296" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="9" width="13.8833333333333" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1333333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.1333333333333" style="2" customWidth="1"/>
+    <col min="7" max="9" width="13.8796296296296" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.6296296296296" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.1296296296296" style="5" customWidth="1"/>
+    <col min="13" max="13" width="28.1296296296296" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K15" s="12" t="s">
+      <c r="E15" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="12" t="s">
-        <v>100</v>
+      <c r="F15" s="8"/>
+      <c r="G15" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="L16" s="12"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2951,4 +3293,353 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="30.6296296296296" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/check/复核规则统计.xlsx
+++ b/src/check/复核规则统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="复核规则统计" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="168">
   <si>
     <t>组别</t>
   </si>
@@ -174,7 +174,7 @@
     <t>状态代码STUS_CD</t>
   </si>
   <si>
-    <t>9999</t>
+    <t>0000</t>
   </si>
   <si>
     <t>recriverNum,custom-input_5</t>
@@ -571,10 +571,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -646,6 +646,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -654,7 +708,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,17 +776,11 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -690,110 +791,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -829,7 +829,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,13 +877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,7 +889,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,19 +949,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,73 +985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,31 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,21 +1050,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1074,43 +1059,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,11 +1092,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1155,10 +1155,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1167,16 +1167,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1185,116 +1185,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1830,22 +1830,22 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.3796296296296" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.3833333333333" style="8" customWidth="1"/>
     <col min="2" max="2" width="9" style="8"/>
     <col min="3" max="3" width="12.25" style="23" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="8" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="23" customWidth="1"/>
     <col min="6" max="6" width="17.75" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.6296296296296" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.62962962962963" style="8" customWidth="1"/>
-    <col min="9" max="9" width="11.8796296296296" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.8796296296296" style="23" customWidth="1"/>
+    <col min="7" max="7" width="13.6333333333333" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.63333333333333" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.8833333333333" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10.8833333333333" style="23" customWidth="1"/>
     <col min="11" max="11" width="10" style="23" customWidth="1"/>
-    <col min="12" max="12" width="11.1296296296296" style="23" customWidth="1"/>
-    <col min="13" max="13" width="11.3796296296296" style="23" customWidth="1"/>
-    <col min="14" max="14" width="17.1296296296296" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.1333333333333" style="23" customWidth="1"/>
+    <col min="13" max="13" width="11.3833333333333" style="23" customWidth="1"/>
+    <col min="14" max="14" width="17.1333333333333" style="8" customWidth="1"/>
     <col min="15" max="16" width="9" style="8"/>
     <col min="17" max="17" width="11.5" style="8" customWidth="1"/>
     <col min="18" max="16384" width="9" style="8"/>
@@ -2198,18 +2198,18 @@
   <sheetPr/>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="19.25" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.8796296296296" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.8833333333333" style="23" customWidth="1"/>
     <col min="3" max="3" width="60.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.3796296296296" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.1296296296296" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.6296296296296" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24.3833333333333" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.1333333333333" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6333333333333" style="8" customWidth="1"/>
     <col min="7" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -2323,16 +2323,16 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="19.8833333333333" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="18.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="18.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="21" customFormat="1" ht="47" customHeight="1" spans="1:4">
@@ -2476,14 +2476,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="12.8796296296296" customWidth="1"/>
-    <col min="3" max="3" width="13.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="14.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.1333333333333" customWidth="1"/>
     <col min="5" max="5" width="120.25" customWidth="1"/>
-    <col min="9" max="9" width="11.1296296296296" customWidth="1"/>
+    <col min="9" max="9" width="11.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2822,19 +2822,19 @@
       <selection activeCell="A10" sqref="A10:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="13.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="13.3833333333333" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="9" width="13.8796296296296" customWidth="1"/>
+    <col min="7" max="9" width="13.8833333333333" customWidth="1"/>
     <col min="10" max="10" width="12.75" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.6296296296296" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.1296296296296" style="5" customWidth="1"/>
-    <col min="13" max="13" width="28.1296296296296" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.6333333333333" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.1333333333333" style="5" customWidth="1"/>
+    <col min="13" max="13" width="28.1333333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3304,10 +3304,10 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.1296296296296" customWidth="1"/>
-    <col min="2" max="2" width="30.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="13.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="30.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
